--- a/Exp.xlsx
+++ b/Exp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoyuguo/Github-database/OHI2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoyuguo/Github-database/OHI-Last Version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4028DE9-85CA-F74F-BA35-DCB8C229F0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B698D148-6BC9-F94D-A794-3EE540AEEC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Life Expectancy" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>Code</t>
   </si>
   <si>
-    <t>ISO</t>
-  </si>
-  <si>
     <t>A.4.1.2_raw_2016</t>
   </si>
   <si>
@@ -1368,6 +1365,10 @@
   </si>
   <si>
     <t>exp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iso</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1743,7 +1744,7 @@
   <dimension ref="A1:I221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1757,28 +1758,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1786,10 +1787,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2">
         <v>63.762999999999998</v>
@@ -1812,10 +1813,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="D3">
         <v>78.194000000000003</v>
@@ -1838,10 +1839,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
       </c>
       <c r="D4">
         <v>76.298000000000002</v>
@@ -1864,10 +1865,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
       <c r="D5">
         <v>83.274000000000001</v>
@@ -1890,10 +1891,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
       </c>
       <c r="D6">
         <v>59.924999999999997</v>
@@ -1916,10 +1917,10 @@
         <v>660</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
       </c>
       <c r="D7">
         <v>81.441000000000003</v>
@@ -1942,10 +1943,10 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
       </c>
       <c r="D8">
         <v>76.617000000000004</v>
@@ -1968,10 +1969,10 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
       </c>
       <c r="D9">
         <v>76.221000000000004</v>
@@ -1994,10 +1995,10 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
       <c r="D10">
         <v>74.64</v>
@@ -2020,10 +2021,10 @@
         <v>533</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
       </c>
       <c r="D11">
         <v>75.867999999999995</v>
@@ -2046,10 +2047,10 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
       </c>
       <c r="D12">
         <v>82.959000000000003</v>
@@ -2072,10 +2073,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
       </c>
       <c r="D13">
         <v>81.257999999999996</v>
@@ -2098,10 +2099,10 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
       </c>
       <c r="D14">
         <v>72.492999999999995</v>
@@ -2124,10 +2125,10 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
       </c>
       <c r="D15">
         <v>73.328999999999994</v>
@@ -2150,10 +2151,10 @@
         <v>48</v>
       </c>
       <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
       </c>
       <c r="D16">
         <v>76.899000000000001</v>
@@ -2176,10 +2177,10 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
         <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
       </c>
       <c r="D17">
         <v>71.784999999999997</v>
@@ -2202,10 +2203,10 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
         <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
       </c>
       <c r="D18">
         <v>78.888000000000005</v>
@@ -2228,10 +2229,10 @@
         <v>112</v>
       </c>
       <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
       </c>
       <c r="D19">
         <v>74.031000000000006</v>
@@ -2254,10 +2255,10 @@
         <v>56</v>
       </c>
       <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
         <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
       </c>
       <c r="D20">
         <v>81.138999999999996</v>
@@ -2280,10 +2281,10 @@
         <v>84</v>
       </c>
       <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
         <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
       </c>
       <c r="D21">
         <v>74.218999999999994</v>
@@ -2306,10 +2307,10 @@
         <v>204</v>
       </c>
       <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
         <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
       </c>
       <c r="D22">
         <v>60.884999999999998</v>
@@ -2332,10 +2333,10 @@
         <v>60</v>
       </c>
       <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
         <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
       </c>
       <c r="D23">
         <v>82.162999999999997</v>
@@ -2358,10 +2359,10 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
         <v>51</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
       </c>
       <c r="D24">
         <v>70.781000000000006</v>
@@ -2384,10 +2385,10 @@
         <v>68</v>
       </c>
       <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
         <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
       </c>
       <c r="D25">
         <v>70.626000000000005</v>
@@ -2410,10 +2411,10 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
         <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
       </c>
       <c r="D26">
         <v>76.998000000000005</v>
@@ -2436,10 +2437,10 @@
         <v>72</v>
       </c>
       <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
         <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
       </c>
       <c r="D27">
         <v>68.177999999999997</v>
@@ -2462,10 +2463,10 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
         <v>59</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
       </c>
       <c r="D28">
         <v>75.23</v>
@@ -2488,10 +2489,10 @@
         <v>92</v>
       </c>
       <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
         <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>62</v>
       </c>
       <c r="D29">
         <v>78.575999999999993</v>
@@ -2514,10 +2515,10 @@
         <v>96</v>
       </c>
       <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
         <v>63</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
       </c>
       <c r="D30">
         <v>75.45</v>
@@ -2540,10 +2541,10 @@
         <v>100</v>
       </c>
       <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
         <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
       </c>
       <c r="D31">
         <v>74.703000000000003</v>
@@ -2566,10 +2567,10 @@
         <v>854</v>
       </c>
       <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
         <v>67</v>
-      </c>
-      <c r="C32" t="s">
-        <v>68</v>
       </c>
       <c r="D32">
         <v>60.353999999999999</v>
@@ -2592,10 +2593,10 @@
         <v>108</v>
       </c>
       <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
         <v>69</v>
-      </c>
-      <c r="C33" t="s">
-        <v>70</v>
       </c>
       <c r="D33">
         <v>60.527999999999999</v>
@@ -2618,10 +2619,10 @@
         <v>132</v>
       </c>
       <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
         <v>71</v>
-      </c>
-      <c r="C34" t="s">
-        <v>72</v>
       </c>
       <c r="D34">
         <v>72.346999999999994</v>
@@ -2644,10 +2645,10 @@
         <v>116</v>
       </c>
       <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
         <v>73</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
       </c>
       <c r="D35">
         <v>68.977000000000004</v>
@@ -2670,10 +2671,10 @@
         <v>120</v>
       </c>
       <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
         <v>75</v>
-      </c>
-      <c r="C36" t="s">
-        <v>76</v>
       </c>
       <c r="D36">
         <v>58.063000000000002</v>
@@ -2696,10 +2697,10 @@
         <v>124</v>
       </c>
       <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
         <v>77</v>
-      </c>
-      <c r="C37" t="s">
-        <v>78</v>
       </c>
       <c r="D37">
         <v>82.117000000000004</v>
@@ -2722,10 +2723,10 @@
         <v>136</v>
       </c>
       <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
         <v>79</v>
-      </c>
-      <c r="C38" t="s">
-        <v>80</v>
       </c>
       <c r="D38">
         <v>83.48</v>
@@ -2748,10 +2749,10 @@
         <v>140</v>
       </c>
       <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
         <v>81</v>
-      </c>
-      <c r="C39" t="s">
-        <v>82</v>
       </c>
       <c r="D39">
         <v>51.593000000000004</v>
@@ -2774,10 +2775,10 @@
         <v>148</v>
       </c>
       <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
         <v>83</v>
-      </c>
-      <c r="C40" t="s">
-        <v>84</v>
       </c>
       <c r="D40">
         <v>53.438000000000002</v>
@@ -2800,10 +2801,10 @@
         <v>152</v>
       </c>
       <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
         <v>85</v>
-      </c>
-      <c r="C41" t="s">
-        <v>86</v>
       </c>
       <c r="D41">
         <v>79.778999999999996</v>
@@ -2826,10 +2827,10 @@
         <v>156</v>
       </c>
       <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
         <v>87</v>
-      </c>
-      <c r="C42" t="s">
-        <v>88</v>
       </c>
       <c r="D42">
         <v>76.209999999999994</v>
@@ -2852,10 +2853,10 @@
         <v>170</v>
       </c>
       <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
         <v>89</v>
-      </c>
-      <c r="C43" t="s">
-        <v>90</v>
       </c>
       <c r="D43">
         <v>76.731999999999999</v>
@@ -2878,10 +2879,10 @@
         <v>174</v>
       </c>
       <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
         <v>91</v>
-      </c>
-      <c r="C44" t="s">
-        <v>92</v>
       </c>
       <c r="D44">
         <v>63.7</v>
@@ -2904,10 +2905,10 @@
         <v>184</v>
       </c>
       <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
         <v>93</v>
-      </c>
-      <c r="C45" t="s">
-        <v>94</v>
       </c>
       <c r="D45">
         <v>75.631</v>
@@ -2930,10 +2931,10 @@
         <v>188</v>
       </c>
       <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
         <v>95</v>
-      </c>
-      <c r="C46" t="s">
-        <v>96</v>
       </c>
       <c r="D46">
         <v>79.738</v>
@@ -2956,10 +2957,10 @@
         <v>384</v>
       </c>
       <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
         <v>97</v>
-      </c>
-      <c r="C47" t="s">
-        <v>98</v>
       </c>
       <c r="D47">
         <v>56.567</v>
@@ -2982,10 +2983,10 @@
         <v>191</v>
       </c>
       <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
         <v>99</v>
-      </c>
-      <c r="C48" t="s">
-        <v>100</v>
       </c>
       <c r="D48">
         <v>78.049000000000007</v>
@@ -3008,10 +3009,10 @@
         <v>192</v>
       </c>
       <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
         <v>101</v>
-      </c>
-      <c r="C49" t="s">
-        <v>102</v>
       </c>
       <c r="D49">
         <v>78.606999999999999</v>
@@ -3034,10 +3035,10 @@
         <v>531</v>
       </c>
       <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
         <v>103</v>
-      </c>
-      <c r="C50" t="s">
-        <v>104</v>
       </c>
       <c r="D50">
         <v>78.435000000000002</v>
@@ -3060,10 +3061,10 @@
         <v>196</v>
       </c>
       <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="s">
         <v>105</v>
-      </c>
-      <c r="C51" t="s">
-        <v>106</v>
       </c>
       <c r="D51">
         <v>80.513000000000005</v>
@@ -3086,10 +3087,10 @@
         <v>203</v>
       </c>
       <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="s">
         <v>107</v>
-      </c>
-      <c r="C52" t="s">
-        <v>108</v>
       </c>
       <c r="D52">
         <v>78.881</v>
@@ -3112,10 +3113,10 @@
         <v>180</v>
       </c>
       <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="s">
         <v>109</v>
-      </c>
-      <c r="C53" t="s">
-        <v>110</v>
       </c>
       <c r="D53">
         <v>59.655000000000001</v>
@@ -3138,10 +3139,10 @@
         <v>208</v>
       </c>
       <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="s">
         <v>111</v>
-      </c>
-      <c r="C54" t="s">
-        <v>112</v>
       </c>
       <c r="D54">
         <v>80.582999999999998</v>
@@ -3164,10 +3165,10 @@
         <v>262</v>
       </c>
       <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" t="s">
         <v>113</v>
-      </c>
-      <c r="C55" t="s">
-        <v>114</v>
       </c>
       <c r="D55">
         <v>65.063999999999993</v>
@@ -3190,10 +3191,10 @@
         <v>212</v>
       </c>
       <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" t="s">
         <v>115</v>
-      </c>
-      <c r="C56" t="s">
-        <v>116</v>
       </c>
       <c r="D56">
         <v>74.384</v>
@@ -3216,10 +3217,10 @@
         <v>214</v>
       </c>
       <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" t="s">
         <v>117</v>
-      </c>
-      <c r="C57" t="s">
-        <v>118</v>
       </c>
       <c r="D57">
         <v>73.471000000000004</v>
@@ -3242,10 +3243,10 @@
         <v>218</v>
       </c>
       <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="s">
         <v>119</v>
-      </c>
-      <c r="C58" t="s">
-        <v>120</v>
       </c>
       <c r="D58">
         <v>76.364999999999995</v>
@@ -3268,10 +3269,10 @@
         <v>818</v>
       </c>
       <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
         <v>121</v>
-      </c>
-      <c r="C59" t="s">
-        <v>122</v>
       </c>
       <c r="D59">
         <v>71.481999999999999</v>
@@ -3294,10 +3295,10 @@
         <v>222</v>
       </c>
       <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
         <v>123</v>
-      </c>
-      <c r="C60" t="s">
-        <v>124</v>
       </c>
       <c r="D60">
         <v>72.644000000000005</v>
@@ -3320,10 +3321,10 @@
         <v>226</v>
       </c>
       <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="s">
         <v>125</v>
-      </c>
-      <c r="C61" t="s">
-        <v>126</v>
       </c>
       <c r="D61">
         <v>57.713000000000001</v>
@@ -3346,10 +3347,10 @@
         <v>232</v>
       </c>
       <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="s">
         <v>127</v>
-      </c>
-      <c r="C62" t="s">
-        <v>128</v>
       </c>
       <c r="D62">
         <v>65.111000000000004</v>
@@ -3372,10 +3373,10 @@
         <v>233</v>
       </c>
       <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="s">
         <v>129</v>
-      </c>
-      <c r="C63" t="s">
-        <v>130</v>
       </c>
       <c r="D63">
         <v>78.096999999999994</v>
@@ -3398,10 +3399,10 @@
         <v>748</v>
       </c>
       <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
         <v>131</v>
-      </c>
-      <c r="C64" t="s">
-        <v>132</v>
       </c>
       <c r="D64">
         <v>56.962000000000003</v>
@@ -3424,10 +3425,10 @@
         <v>231</v>
       </c>
       <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="s">
         <v>133</v>
-      </c>
-      <c r="C65" t="s">
-        <v>134</v>
       </c>
       <c r="D65">
         <v>65.481999999999999</v>
@@ -3450,10 +3451,10 @@
         <v>234</v>
       </c>
       <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" t="s">
         <v>135</v>
-      </c>
-      <c r="C66" t="s">
-        <v>136</v>
       </c>
       <c r="D66">
         <v>80.254999999999995</v>
@@ -3476,10 +3477,10 @@
         <v>238</v>
       </c>
       <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
         <v>137</v>
-      </c>
-      <c r="C67" t="s">
-        <v>138</v>
       </c>
       <c r="D67">
         <v>81.021000000000001</v>
@@ -3502,10 +3503,10 @@
         <v>242</v>
       </c>
       <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" t="s">
         <v>139</v>
-      </c>
-      <c r="C68" t="s">
-        <v>140</v>
       </c>
       <c r="D68">
         <v>67.174999999999997</v>
@@ -3528,10 +3529,10 @@
         <v>246</v>
       </c>
       <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" t="s">
         <v>141</v>
-      </c>
-      <c r="C69" t="s">
-        <v>142</v>
       </c>
       <c r="D69">
         <v>81.382000000000005</v>
@@ -3554,10 +3555,10 @@
         <v>250</v>
       </c>
       <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" t="s">
         <v>143</v>
-      </c>
-      <c r="C70" t="s">
-        <v>144</v>
       </c>
       <c r="D70">
         <v>82.328000000000003</v>
@@ -3580,10 +3581,10 @@
         <v>258</v>
       </c>
       <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="s">
         <v>145</v>
-      </c>
-      <c r="C71" t="s">
-        <v>146</v>
       </c>
       <c r="D71">
         <v>77.024000000000001</v>
@@ -3606,10 +3607,10 @@
         <v>266</v>
       </c>
       <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" t="s">
         <v>147</v>
-      </c>
-      <c r="C72" t="s">
-        <v>148</v>
       </c>
       <c r="D72">
         <v>65.418000000000006</v>
@@ -3632,10 +3633,10 @@
         <v>270</v>
       </c>
       <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" t="s">
         <v>149</v>
-      </c>
-      <c r="C73" t="s">
-        <v>150</v>
       </c>
       <c r="D73">
         <v>61.165999999999997</v>
@@ -3658,10 +3659,10 @@
         <v>268</v>
       </c>
       <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="s">
         <v>151</v>
-      </c>
-      <c r="C74" t="s">
-        <v>152</v>
       </c>
       <c r="D74">
         <v>73.206999999999994</v>
@@ -3684,10 +3685,10 @@
         <v>276</v>
       </c>
       <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" t="s">
         <v>153</v>
-      </c>
-      <c r="C75" t="s">
-        <v>154</v>
       </c>
       <c r="D75">
         <v>80.902000000000001</v>
@@ -3710,10 +3711,10 @@
         <v>288</v>
       </c>
       <c r="B76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" t="s">
         <v>155</v>
-      </c>
-      <c r="C76" t="s">
-        <v>156</v>
       </c>
       <c r="D76">
         <v>63.124000000000002</v>
@@ -3736,10 +3737,10 @@
         <v>300</v>
       </c>
       <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" t="s">
         <v>157</v>
-      </c>
-      <c r="C77" t="s">
-        <v>158</v>
       </c>
       <c r="D77">
         <v>81.727000000000004</v>
@@ -3762,10 +3763,10 @@
         <v>304</v>
       </c>
       <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" t="s">
         <v>159</v>
-      </c>
-      <c r="C78" t="s">
-        <v>160</v>
       </c>
       <c r="D78">
         <v>71.492999999999995</v>
@@ -3788,10 +3789,10 @@
         <v>308</v>
       </c>
       <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="s">
         <v>161</v>
-      </c>
-      <c r="C79" t="s">
-        <v>162</v>
       </c>
       <c r="D79">
         <v>72.408000000000001</v>
@@ -3814,10 +3815,10 @@
         <v>320</v>
       </c>
       <c r="B80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" t="s">
         <v>163</v>
-      </c>
-      <c r="C80" t="s">
-        <v>164</v>
       </c>
       <c r="D80">
         <v>73.540999999999997</v>
@@ -3840,10 +3841,10 @@
         <v>831</v>
       </c>
       <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" t="s">
         <v>165</v>
-      </c>
-      <c r="C81" t="s">
-        <v>166</v>
       </c>
       <c r="D81" t="e">
         <v>#N/A</v>
@@ -3866,10 +3867,10 @@
         <v>324</v>
       </c>
       <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" t="s">
         <v>167</v>
-      </c>
-      <c r="C82" t="s">
-        <v>168</v>
       </c>
       <c r="D82">
         <v>60.17</v>
@@ -3892,10 +3893,10 @@
         <v>624</v>
       </c>
       <c r="B83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" t="s">
         <v>169</v>
-      </c>
-      <c r="C83" t="s">
-        <v>170</v>
       </c>
       <c r="D83">
         <v>57.328000000000003</v>
@@ -3918,10 +3919,10 @@
         <v>328</v>
       </c>
       <c r="B84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" t="s">
         <v>171</v>
-      </c>
-      <c r="C84" t="s">
-        <v>172</v>
       </c>
       <c r="D84">
         <v>69.453999999999994</v>
@@ -3944,10 +3945,10 @@
         <v>332</v>
       </c>
       <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" t="s">
         <v>173</v>
-      </c>
-      <c r="C85" t="s">
-        <v>174</v>
       </c>
       <c r="D85">
         <v>62.896000000000001</v>
@@ -3970,10 +3971,10 @@
         <v>336</v>
       </c>
       <c r="B86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" t="s">
         <v>175</v>
-      </c>
-      <c r="C86" t="s">
-        <v>176</v>
       </c>
       <c r="D86">
         <v>74.551000000000002</v>
@@ -3996,10 +3997,10 @@
         <v>340</v>
       </c>
       <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" t="s">
         <v>177</v>
-      </c>
-      <c r="C87" t="s">
-        <v>178</v>
       </c>
       <c r="D87">
         <v>74.700999999999993</v>
@@ -4022,10 +4023,10 @@
         <v>344</v>
       </c>
       <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" t="s">
         <v>179</v>
-      </c>
-      <c r="C88" t="s">
-        <v>180</v>
       </c>
       <c r="D88">
         <v>84.277000000000001</v>
@@ -4048,10 +4049,10 @@
         <v>348</v>
       </c>
       <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" t="s">
         <v>181</v>
-      </c>
-      <c r="C89" t="s">
-        <v>182</v>
       </c>
       <c r="D89">
         <v>76.266000000000005</v>
@@ -4074,10 +4075,10 @@
         <v>352</v>
       </c>
       <c r="B90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" t="s">
         <v>183</v>
-      </c>
-      <c r="C90" t="s">
-        <v>184</v>
       </c>
       <c r="D90">
         <v>82.600999999999999</v>
@@ -4100,10 +4101,10 @@
         <v>356</v>
       </c>
       <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" t="s">
         <v>185</v>
-      </c>
-      <c r="C91" t="s">
-        <v>186</v>
       </c>
       <c r="D91">
         <v>68.897000000000006</v>
@@ -4126,10 +4127,10 @@
         <v>360</v>
       </c>
       <c r="B92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" t="s">
         <v>187</v>
-      </c>
-      <c r="C92" t="s">
-        <v>188</v>
       </c>
       <c r="D92">
         <v>71.034999999999997</v>
@@ -4152,10 +4153,10 @@
         <v>364</v>
       </c>
       <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" t="s">
         <v>189</v>
-      </c>
-      <c r="C93" t="s">
-        <v>190</v>
       </c>
       <c r="D93">
         <v>76.046999999999997</v>
@@ -4178,10 +4179,10 @@
         <v>368</v>
       </c>
       <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" t="s">
         <v>191</v>
-      </c>
-      <c r="C94" t="s">
-        <v>192</v>
       </c>
       <c r="D94">
         <v>70.122</v>
@@ -4204,10 +4205,10 @@
         <v>372</v>
       </c>
       <c r="B95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" t="s">
         <v>193</v>
-      </c>
-      <c r="C95" t="s">
-        <v>194</v>
       </c>
       <c r="D95">
         <v>81.614999999999995</v>
@@ -4230,10 +4231,10 @@
         <v>833</v>
       </c>
       <c r="B96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" t="s">
         <v>195</v>
-      </c>
-      <c r="C96" t="s">
-        <v>196</v>
       </c>
       <c r="D96">
         <v>80.965999999999994</v>
@@ -4256,10 +4257,10 @@
         <v>376</v>
       </c>
       <c r="B97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" t="s">
         <v>197</v>
-      </c>
-      <c r="C97" t="s">
-        <v>198</v>
       </c>
       <c r="D97">
         <v>82.503</v>
@@ -4282,10 +4283,10 @@
         <v>380</v>
       </c>
       <c r="B98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" t="s">
         <v>199</v>
-      </c>
-      <c r="C98" t="s">
-        <v>200</v>
       </c>
       <c r="D98">
         <v>83.007999999999996</v>
@@ -4308,10 +4309,10 @@
         <v>388</v>
       </c>
       <c r="B99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" t="s">
         <v>201</v>
-      </c>
-      <c r="C99" t="s">
-        <v>202</v>
       </c>
       <c r="D99">
         <v>74.174999999999997</v>
@@ -4334,10 +4335,10 @@
         <v>392</v>
       </c>
       <c r="B100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" t="s">
         <v>203</v>
-      </c>
-      <c r="C100" t="s">
-        <v>204</v>
       </c>
       <c r="D100">
         <v>84.09</v>
@@ -4360,10 +4361,10 @@
         <v>832</v>
       </c>
       <c r="B101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" t="s">
         <v>205</v>
-      </c>
-      <c r="C101" t="s">
-        <v>206</v>
       </c>
       <c r="D101" t="e">
         <v>#N/A</v>
@@ -4386,10 +4387,10 @@
         <v>400</v>
       </c>
       <c r="B102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" t="s">
         <v>207</v>
-      </c>
-      <c r="C102" t="s">
-        <v>208</v>
       </c>
       <c r="D102">
         <v>74.183999999999997</v>
@@ -4412,10 +4413,10 @@
         <v>398</v>
       </c>
       <c r="B103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" t="s">
         <v>209</v>
-      </c>
-      <c r="C103" t="s">
-        <v>210</v>
       </c>
       <c r="D103">
         <v>72.081000000000003</v>
@@ -4438,10 +4439,10 @@
         <v>404</v>
       </c>
       <c r="B104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" t="s">
         <v>211</v>
-      </c>
-      <c r="C104" t="s">
-        <v>212</v>
       </c>
       <c r="D104">
         <v>65.393000000000001</v>
@@ -4464,10 +4465,10 @@
         <v>296</v>
       </c>
       <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="s">
         <v>213</v>
-      </c>
-      <c r="C105" t="s">
-        <v>214</v>
       </c>
       <c r="D105">
         <v>67.576999999999998</v>
@@ -4490,10 +4491,10 @@
         <v>689</v>
       </c>
       <c r="B106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" t="s">
         <v>215</v>
-      </c>
-      <c r="C106" t="s">
-        <v>216</v>
       </c>
       <c r="D106" t="e">
         <v>#N/A</v>
@@ -4516,10 +4517,10 @@
         <v>414</v>
       </c>
       <c r="B107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" t="s">
         <v>217</v>
-      </c>
-      <c r="C107" t="s">
-        <v>218</v>
       </c>
       <c r="D107">
         <v>75.224000000000004</v>
@@ -4542,10 +4543,10 @@
         <v>417</v>
       </c>
       <c r="B108" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" t="s">
         <v>219</v>
-      </c>
-      <c r="C108" t="s">
-        <v>220</v>
       </c>
       <c r="D108">
         <v>71.054000000000002</v>
@@ -4568,10 +4569,10 @@
         <v>418</v>
       </c>
       <c r="B109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" t="s">
         <v>221</v>
-      </c>
-      <c r="C109" t="s">
-        <v>222</v>
       </c>
       <c r="D109">
         <v>66.924000000000007</v>
@@ -4594,10 +4595,10 @@
         <v>428</v>
       </c>
       <c r="B110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" t="s">
         <v>223</v>
-      </c>
-      <c r="C110" t="s">
-        <v>224</v>
       </c>
       <c r="D110">
         <v>74.91</v>
@@ -4620,10 +4621,10 @@
         <v>422</v>
       </c>
       <c r="B111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" t="s">
         <v>225</v>
-      </c>
-      <c r="C111" t="s">
-        <v>226</v>
       </c>
       <c r="D111">
         <v>78.8</v>
@@ -4646,10 +4647,10 @@
         <v>426</v>
       </c>
       <c r="B112" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" t="s">
         <v>227</v>
-      </c>
-      <c r="C112" t="s">
-        <v>228</v>
       </c>
       <c r="D112">
         <v>52.058999999999997</v>
@@ -4672,10 +4673,10 @@
         <v>430</v>
       </c>
       <c r="B113" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" t="s">
         <v>229</v>
-      </c>
-      <c r="C113" t="s">
-        <v>230</v>
       </c>
       <c r="D113">
         <v>62.802</v>
@@ -4698,10 +4699,10 @@
         <v>434</v>
       </c>
       <c r="B114" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" t="s">
         <v>231</v>
-      </c>
-      <c r="C114" t="s">
-        <v>232</v>
       </c>
       <c r="D114">
         <v>72.311000000000007</v>
@@ -4724,10 +4725,10 @@
         <v>438</v>
       </c>
       <c r="B115" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" t="s">
         <v>233</v>
-      </c>
-      <c r="C115" t="s">
-        <v>234</v>
       </c>
       <c r="D115">
         <v>82.123999999999995</v>
@@ -4750,10 +4751,10 @@
         <v>440</v>
       </c>
       <c r="B116" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116" t="s">
         <v>235</v>
-      </c>
-      <c r="C116" t="s">
-        <v>236</v>
       </c>
       <c r="D116">
         <v>75.238</v>
@@ -4776,10 +4777,10 @@
         <v>442</v>
       </c>
       <c r="B117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117" t="s">
         <v>237</v>
-      </c>
-      <c r="C117" t="s">
-        <v>238</v>
       </c>
       <c r="D117">
         <v>81.802999999999997</v>
@@ -4802,10 +4803,10 @@
         <v>446</v>
       </c>
       <c r="B118" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118" t="s">
         <v>239</v>
-      </c>
-      <c r="C118" t="s">
-        <v>240</v>
       </c>
       <c r="D118">
         <v>83.853999999999999</v>
@@ -4828,10 +4829,10 @@
         <v>450</v>
       </c>
       <c r="B119" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119" t="s">
         <v>241</v>
-      </c>
-      <c r="C119" t="s">
-        <v>242</v>
       </c>
       <c r="D119">
         <v>65.930999999999997</v>
@@ -4854,10 +4855,10 @@
         <v>454</v>
       </c>
       <c r="B120" t="s">
+        <v>242</v>
+      </c>
+      <c r="C120" t="s">
         <v>243</v>
-      </c>
-      <c r="C120" t="s">
-        <v>244</v>
       </c>
       <c r="D120">
         <v>62.680999999999997</v>
@@ -4880,10 +4881,10 @@
         <v>458</v>
       </c>
       <c r="B121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121" t="s">
         <v>245</v>
-      </c>
-      <c r="C121" t="s">
-        <v>246</v>
       </c>
       <c r="D121">
         <v>75.649000000000001</v>
@@ -4906,10 +4907,10 @@
         <v>462</v>
       </c>
       <c r="B122" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" t="s">
         <v>247</v>
-      </c>
-      <c r="C122" t="s">
-        <v>248</v>
       </c>
       <c r="D122">
         <v>78.013000000000005</v>
@@ -4932,10 +4933,10 @@
         <v>466</v>
       </c>
       <c r="B123" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" t="s">
         <v>249</v>
-      </c>
-      <c r="C123" t="s">
-        <v>250</v>
       </c>
       <c r="D123">
         <v>57.987000000000002</v>
@@ -4958,10 +4959,10 @@
         <v>470</v>
       </c>
       <c r="B124" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124" t="s">
         <v>251</v>
-      </c>
-      <c r="C124" t="s">
-        <v>252</v>
       </c>
       <c r="D124">
         <v>82.063000000000002</v>
@@ -4984,10 +4985,10 @@
         <v>584</v>
       </c>
       <c r="B125" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" t="s">
         <v>253</v>
-      </c>
-      <c r="C125" t="s">
-        <v>254</v>
       </c>
       <c r="D125">
         <v>73.042000000000002</v>
@@ -5010,10 +5011,10 @@
         <v>478</v>
       </c>
       <c r="B126" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126" t="s">
         <v>255</v>
-      </c>
-      <c r="C126" t="s">
-        <v>256</v>
       </c>
       <c r="D126">
         <v>64.207999999999998</v>
@@ -5036,10 +5037,10 @@
         <v>480</v>
       </c>
       <c r="B127" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" t="s">
         <v>257</v>
-      </c>
-      <c r="C127" t="s">
-        <v>258</v>
       </c>
       <c r="D127">
         <v>74.626000000000005</v>
@@ -5062,10 +5063,10 @@
         <v>484</v>
       </c>
       <c r="B128" t="s">
+        <v>258</v>
+      </c>
+      <c r="C128" t="s">
         <v>259</v>
-      </c>
-      <c r="C128" t="s">
-        <v>260</v>
       </c>
       <c r="D128">
         <v>74.917000000000002</v>
@@ -5088,10 +5089,10 @@
         <v>583</v>
       </c>
       <c r="B129" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129" t="s">
         <v>261</v>
-      </c>
-      <c r="C129" t="s">
-        <v>262</v>
       </c>
       <c r="D129">
         <v>67.471000000000004</v>
@@ -5114,10 +5115,10 @@
         <v>498</v>
       </c>
       <c r="B130" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130" t="s">
         <v>263</v>
-      </c>
-      <c r="C130" t="s">
-        <v>264</v>
       </c>
       <c r="D130">
         <v>71.617000000000004</v>
@@ -5140,10 +5141,10 @@
         <v>492</v>
       </c>
       <c r="B131" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131" t="s">
         <v>265</v>
-      </c>
-      <c r="C131" t="s">
-        <v>266</v>
       </c>
       <c r="D131">
         <v>86.049000000000007</v>
@@ -5166,10 +5167,10 @@
         <v>496</v>
       </c>
       <c r="B132" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132" t="s">
         <v>267</v>
-      </c>
-      <c r="C132" t="s">
-        <v>268</v>
       </c>
       <c r="D132">
         <v>69.320999999999998</v>
@@ -5192,10 +5193,10 @@
         <v>499</v>
       </c>
       <c r="B133" t="s">
+        <v>268</v>
+      </c>
+      <c r="C133" t="s">
         <v>269</v>
-      </c>
-      <c r="C133" t="s">
-        <v>270</v>
       </c>
       <c r="D133">
         <v>76.567999999999998</v>
@@ -5218,10 +5219,10 @@
         <v>504</v>
       </c>
       <c r="B134" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" t="s">
         <v>271</v>
-      </c>
-      <c r="C134" t="s">
-        <v>272</v>
       </c>
       <c r="D134">
         <v>75.974000000000004</v>
@@ -5244,10 +5245,10 @@
         <v>508</v>
       </c>
       <c r="B135" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135" t="s">
         <v>273</v>
-      </c>
-      <c r="C135" t="s">
-        <v>274</v>
       </c>
       <c r="D135">
         <v>58.308999999999997</v>
@@ -5270,10 +5271,10 @@
         <v>104</v>
       </c>
       <c r="B136" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136" t="s">
         <v>275</v>
-      </c>
-      <c r="C136" t="s">
-        <v>276</v>
       </c>
       <c r="D136">
         <v>66.204999999999998</v>
@@ -5296,10 +5297,10 @@
         <v>516</v>
       </c>
       <c r="B137" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137" t="s">
         <v>277</v>
-      </c>
-      <c r="C137" t="s">
-        <v>278</v>
       </c>
       <c r="D137">
         <v>62.625</v>
@@ -5322,10 +5323,10 @@
         <v>520</v>
       </c>
       <c r="B138" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138" t="s">
         <v>279</v>
-      </c>
-      <c r="C138" t="s">
-        <v>280</v>
       </c>
       <c r="D138">
         <v>59.780999999999999</v>
@@ -5348,10 +5349,10 @@
         <v>524</v>
       </c>
       <c r="B139" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139" t="s">
         <v>281</v>
-      </c>
-      <c r="C139" t="s">
-        <v>282</v>
       </c>
       <c r="D139">
         <v>69.847999999999999</v>
@@ -5374,10 +5375,10 @@
         <v>528</v>
       </c>
       <c r="B140" t="s">
+        <v>282</v>
+      </c>
+      <c r="C140" t="s">
         <v>283</v>
-      </c>
-      <c r="C140" t="s">
-        <v>284</v>
       </c>
       <c r="D140">
         <v>81.861999999999995</v>
@@ -5400,10 +5401,10 @@
         <v>540</v>
       </c>
       <c r="B141" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141" t="s">
         <v>285</v>
-      </c>
-      <c r="C141" t="s">
-        <v>286</v>
       </c>
       <c r="D141">
         <v>77.013999999999996</v>
@@ -5426,10 +5427,10 @@
         <v>554</v>
       </c>
       <c r="B142" t="s">
+        <v>286</v>
+      </c>
+      <c r="C142" t="s">
         <v>287</v>
-      </c>
-      <c r="C142" t="s">
-        <v>288</v>
       </c>
       <c r="D142">
         <v>81.858999999999995</v>
@@ -5452,10 +5453,10 @@
         <v>558</v>
       </c>
       <c r="B143" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143" t="s">
         <v>289</v>
-      </c>
-      <c r="C143" t="s">
-        <v>290</v>
       </c>
       <c r="D143">
         <v>73.86</v>
@@ -5478,10 +5479,10 @@
         <v>562</v>
       </c>
       <c r="B144" t="s">
+        <v>290</v>
+      </c>
+      <c r="C144" t="s">
         <v>291</v>
-      </c>
-      <c r="C144" t="s">
-        <v>292</v>
       </c>
       <c r="D144">
         <v>61.137</v>
@@ -5504,10 +5505,10 @@
         <v>566</v>
       </c>
       <c r="B145" t="s">
+        <v>292</v>
+      </c>
+      <c r="C145" t="s">
         <v>293</v>
-      </c>
-      <c r="C145" t="s">
-        <v>294</v>
       </c>
       <c r="D145">
         <v>53.540999999999997</v>
@@ -5530,10 +5531,10 @@
         <v>570</v>
       </c>
       <c r="B146" t="s">
+        <v>294</v>
+      </c>
+      <c r="C146" t="s">
         <v>295</v>
-      </c>
-      <c r="C146" t="s">
-        <v>296</v>
       </c>
       <c r="D146">
         <v>73.278999999999996</v>
@@ -5556,10 +5557,10 @@
         <v>408</v>
       </c>
       <c r="B147" t="s">
+        <v>296</v>
+      </c>
+      <c r="C147" t="s">
         <v>297</v>
-      </c>
-      <c r="C147" t="s">
-        <v>298</v>
       </c>
       <c r="D147">
         <v>71.710999999999999</v>
@@ -5582,10 +5583,10 @@
         <v>807</v>
       </c>
       <c r="B148" t="s">
+        <v>298</v>
+      </c>
+      <c r="C148" t="s">
         <v>299</v>
-      </c>
-      <c r="C148" t="s">
-        <v>300</v>
       </c>
       <c r="D148">
         <v>75.498000000000005</v>
@@ -5608,10 +5609,10 @@
         <v>578</v>
       </c>
       <c r="B149" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149" t="s">
         <v>301</v>
-      </c>
-      <c r="C149" t="s">
-        <v>302</v>
       </c>
       <c r="D149">
         <v>82.028999999999996</v>
@@ -5634,10 +5635,10 @@
         <v>512</v>
       </c>
       <c r="B150" t="s">
+        <v>302</v>
+      </c>
+      <c r="C150" t="s">
         <v>303</v>
-      </c>
-      <c r="C150" t="s">
-        <v>304</v>
       </c>
       <c r="D150">
         <v>77.141999999999996</v>
@@ -5660,10 +5661,10 @@
         <v>586</v>
       </c>
       <c r="B151" t="s">
+        <v>304</v>
+      </c>
+      <c r="C151" t="s">
         <v>305</v>
-      </c>
-      <c r="C151" t="s">
-        <v>306</v>
       </c>
       <c r="D151">
         <v>66.77</v>
@@ -5686,10 +5687,10 @@
         <v>585</v>
       </c>
       <c r="B152" t="s">
+        <v>306</v>
+      </c>
+      <c r="C152" t="s">
         <v>307</v>
-      </c>
-      <c r="C152" t="s">
-        <v>308</v>
       </c>
       <c r="D152">
         <v>73.088999999999999</v>
@@ -5712,10 +5713,10 @@
         <v>591</v>
       </c>
       <c r="B153" t="s">
+        <v>308</v>
+      </c>
+      <c r="C153" t="s">
         <v>309</v>
-      </c>
-      <c r="C153" t="s">
-        <v>310</v>
       </c>
       <c r="D153">
         <v>77.963999999999999</v>
@@ -5738,10 +5739,10 @@
         <v>598</v>
       </c>
       <c r="B154" t="s">
+        <v>310</v>
+      </c>
+      <c r="C154" t="s">
         <v>311</v>
-      </c>
-      <c r="C154" t="s">
-        <v>312</v>
       </c>
       <c r="D154">
         <v>63.744</v>
@@ -5764,10 +5765,10 @@
         <v>600</v>
       </c>
       <c r="B155" t="s">
+        <v>312</v>
+      </c>
+      <c r="C155" t="s">
         <v>313</v>
-      </c>
-      <c r="C155" t="s">
-        <v>314</v>
       </c>
       <c r="D155">
         <v>73.835999999999999</v>
@@ -5790,10 +5791,10 @@
         <v>604</v>
       </c>
       <c r="B156" t="s">
+        <v>314</v>
+      </c>
+      <c r="C156" t="s">
         <v>315</v>
-      </c>
-      <c r="C156" t="s">
-        <v>316</v>
       </c>
       <c r="D156">
         <v>76.043999999999997</v>
@@ -5816,10 +5817,10 @@
         <v>608</v>
       </c>
       <c r="B157" t="s">
+        <v>316</v>
+      </c>
+      <c r="C157" t="s">
         <v>317</v>
-      </c>
-      <c r="C157" t="s">
-        <v>318</v>
       </c>
       <c r="D157">
         <v>70.802000000000007</v>
@@ -5842,10 +5843,10 @@
         <v>616</v>
       </c>
       <c r="B158" t="s">
+        <v>318</v>
+      </c>
+      <c r="C158" t="s">
         <v>319</v>
-      </c>
-      <c r="C158" t="s">
-        <v>320</v>
       </c>
       <c r="D158">
         <v>78.11</v>
@@ -5868,10 +5869,10 @@
         <v>620</v>
       </c>
       <c r="B159" t="s">
+        <v>320</v>
+      </c>
+      <c r="C159" t="s">
         <v>321</v>
-      </c>
-      <c r="C159" t="s">
-        <v>322</v>
       </c>
       <c r="D159">
         <v>81.444000000000003</v>
@@ -5894,10 +5895,10 @@
         <v>634</v>
       </c>
       <c r="B160" t="s">
+        <v>322</v>
+      </c>
+      <c r="C160" t="s">
         <v>323</v>
-      </c>
-      <c r="C160" t="s">
-        <v>324</v>
       </c>
       <c r="D160">
         <v>79.867999999999995</v>
@@ -5920,10 +5921,10 @@
         <v>178</v>
       </c>
       <c r="B161" t="s">
+        <v>324</v>
+      </c>
+      <c r="C161" t="s">
         <v>325</v>
-      </c>
-      <c r="C161" t="s">
-        <v>326</v>
       </c>
       <c r="D161">
         <v>63.555999999999997</v>
@@ -5946,10 +5947,10 @@
         <v>642</v>
       </c>
       <c r="B162" t="s">
+        <v>326</v>
+      </c>
+      <c r="C162" t="s">
         <v>327</v>
-      </c>
-      <c r="C162" t="s">
-        <v>328</v>
       </c>
       <c r="D162">
         <v>75.644000000000005</v>
@@ -5972,10 +5973,10 @@
         <v>643</v>
       </c>
       <c r="B163" t="s">
+        <v>328</v>
+      </c>
+      <c r="C163" t="s">
         <v>329</v>
-      </c>
-      <c r="C163" t="s">
-        <v>330</v>
       </c>
       <c r="D163">
         <v>71.834999999999994</v>
@@ -5998,10 +5999,10 @@
         <v>646</v>
       </c>
       <c r="B164" t="s">
+        <v>330</v>
+      </c>
+      <c r="C164" t="s">
         <v>331</v>
-      </c>
-      <c r="C164" t="s">
-        <v>332</v>
       </c>
       <c r="D164">
         <v>67.930000000000007</v>
@@ -6024,10 +6025,10 @@
         <v>652</v>
       </c>
       <c r="B165" t="s">
+        <v>332</v>
+      </c>
+      <c r="C165" t="s">
         <v>333</v>
-      </c>
-      <c r="C165" t="s">
-        <v>334</v>
       </c>
       <c r="D165" t="e">
         <v>#N/A</v>
@@ -6050,10 +6051,10 @@
         <v>659</v>
       </c>
       <c r="B166" t="s">
+        <v>334</v>
+      </c>
+      <c r="C166" t="s">
         <v>335</v>
-      </c>
-      <c r="C166" t="s">
-        <v>336</v>
       </c>
       <c r="D166">
         <v>75.73</v>
@@ -6076,10 +6077,10 @@
         <v>662</v>
       </c>
       <c r="B167" t="s">
+        <v>336</v>
+      </c>
+      <c r="C167" t="s">
         <v>337</v>
-      </c>
-      <c r="C167" t="s">
-        <v>338</v>
       </c>
       <c r="D167">
         <v>75.751999999999995</v>
@@ -6102,10 +6103,10 @@
         <v>670</v>
       </c>
       <c r="B168" t="s">
+        <v>338</v>
+      </c>
+      <c r="C168" t="s">
         <v>339</v>
-      </c>
-      <c r="C168" t="s">
-        <v>340</v>
       </c>
       <c r="D168">
         <v>72.192999999999998</v>
@@ -6128,10 +6129,10 @@
         <v>882</v>
       </c>
       <c r="B169" t="s">
+        <v>340</v>
+      </c>
+      <c r="C169" t="s">
         <v>341</v>
-      </c>
-      <c r="C169" t="s">
-        <v>342</v>
       </c>
       <c r="D169">
         <v>72.894999999999996</v>
@@ -6154,10 +6155,10 @@
         <v>674</v>
       </c>
       <c r="B170" t="s">
+        <v>342</v>
+      </c>
+      <c r="C170" t="s">
         <v>343</v>
-      </c>
-      <c r="C170" t="s">
-        <v>344</v>
       </c>
       <c r="D170">
         <v>84.545000000000002</v>
@@ -6180,10 +6181,10 @@
         <v>678</v>
       </c>
       <c r="B171" t="s">
+        <v>344</v>
+      </c>
+      <c r="C171" t="s">
         <v>345</v>
-      </c>
-      <c r="C171" t="s">
-        <v>346</v>
       </c>
       <c r="D171">
         <v>69.67</v>
@@ -6206,10 +6207,10 @@
         <v>682</v>
       </c>
       <c r="B172" t="s">
+        <v>346</v>
+      </c>
+      <c r="C172" t="s">
         <v>347</v>
-      </c>
-      <c r="C172" t="s">
-        <v>348</v>
       </c>
       <c r="D172">
         <v>74.760999999999996</v>
@@ -6232,10 +6233,10 @@
         <v>686</v>
       </c>
       <c r="B173" t="s">
+        <v>348</v>
+      </c>
+      <c r="C173" t="s">
         <v>349</v>
-      </c>
-      <c r="C173" t="s">
-        <v>350</v>
       </c>
       <c r="D173">
         <v>67.078000000000003</v>
@@ -6258,10 +6259,10 @@
         <v>688</v>
       </c>
       <c r="B174" t="s">
+        <v>350</v>
+      </c>
+      <c r="C174" t="s">
         <v>351</v>
-      </c>
-      <c r="C174" t="s">
-        <v>352</v>
       </c>
       <c r="D174">
         <v>75.504999999999995</v>
@@ -6284,10 +6285,10 @@
         <v>690</v>
       </c>
       <c r="B175" t="s">
+        <v>352</v>
+      </c>
+      <c r="C175" t="s">
         <v>353</v>
-      </c>
-      <c r="C175" t="s">
-        <v>354</v>
       </c>
       <c r="D175">
         <v>73.225999999999999</v>
@@ -6310,10 +6311,10 @@
         <v>694</v>
       </c>
       <c r="B176" t="s">
+        <v>354</v>
+      </c>
+      <c r="C176" t="s">
         <v>355</v>
-      </c>
-      <c r="C176" t="s">
-        <v>356</v>
       </c>
       <c r="D176">
         <v>53.444000000000003</v>
@@ -6336,10 +6337,10 @@
         <v>702</v>
       </c>
       <c r="B177" t="s">
+        <v>356</v>
+      </c>
+      <c r="C177" t="s">
         <v>357</v>
-      </c>
-      <c r="C177" t="s">
-        <v>358</v>
       </c>
       <c r="D177">
         <v>83.082999999999998</v>
@@ -6362,10 +6363,10 @@
         <v>534</v>
       </c>
       <c r="B178" t="s">
+        <v>358</v>
+      </c>
+      <c r="C178" t="s">
         <v>359</v>
-      </c>
-      <c r="C178" t="s">
-        <v>360</v>
       </c>
       <c r="D178">
         <v>78.5</v>
@@ -6388,10 +6389,10 @@
         <v>703</v>
       </c>
       <c r="B179" t="s">
+        <v>360</v>
+      </c>
+      <c r="C179" t="s">
         <v>361</v>
-      </c>
-      <c r="C179" t="s">
-        <v>362</v>
       </c>
       <c r="D179">
         <v>77.034000000000006</v>
@@ -6414,10 +6415,10 @@
         <v>705</v>
       </c>
       <c r="B180" t="s">
+        <v>362</v>
+      </c>
+      <c r="C180" t="s">
         <v>363</v>
-      </c>
-      <c r="C180" t="s">
-        <v>364</v>
       </c>
       <c r="D180">
         <v>80.852000000000004</v>
@@ -6440,10 +6441,10 @@
         <v>90</v>
       </c>
       <c r="B181" t="s">
+        <v>364</v>
+      </c>
+      <c r="C181" t="s">
         <v>365</v>
-      </c>
-      <c r="C181" t="s">
-        <v>366</v>
       </c>
       <c r="D181">
         <v>72.424000000000007</v>
@@ -6466,10 +6467,10 @@
         <v>706</v>
       </c>
       <c r="B182" t="s">
+        <v>366</v>
+      </c>
+      <c r="C182" t="s">
         <v>367</v>
-      </c>
-      <c r="C182" t="s">
-        <v>368</v>
       </c>
       <c r="D182">
         <v>56.323999999999998</v>
@@ -6492,10 +6493,10 @@
         <v>710</v>
       </c>
       <c r="B183" t="s">
+        <v>368</v>
+      </c>
+      <c r="C183" t="s">
         <v>369</v>
-      </c>
-      <c r="C183" t="s">
-        <v>370</v>
       </c>
       <c r="D183">
         <v>63.152999999999999</v>
@@ -6518,10 +6519,10 @@
         <v>410</v>
       </c>
       <c r="B184" t="s">
+        <v>370</v>
+      </c>
+      <c r="C184" t="s">
         <v>371</v>
-      </c>
-      <c r="C184" t="s">
-        <v>372</v>
       </c>
       <c r="D184">
         <v>82.379000000000005</v>
@@ -6544,10 +6545,10 @@
         <v>728</v>
       </c>
       <c r="B185" t="s">
+        <v>372</v>
+      </c>
+      <c r="C185" t="s">
         <v>373</v>
-      </c>
-      <c r="C185" t="s">
-        <v>374</v>
       </c>
       <c r="D185">
         <v>57.12</v>
@@ -6570,10 +6571,10 @@
         <v>724</v>
       </c>
       <c r="B186" t="s">
+        <v>374</v>
+      </c>
+      <c r="C186" t="s">
         <v>375</v>
-      </c>
-      <c r="C186" t="s">
-        <v>376</v>
       </c>
       <c r="D186">
         <v>83.144999999999996</v>
@@ -6596,10 +6597,10 @@
         <v>144</v>
       </c>
       <c r="B187" t="s">
+        <v>376</v>
+      </c>
+      <c r="C187" t="s">
         <v>377</v>
-      </c>
-      <c r="C187" t="s">
-        <v>378</v>
       </c>
       <c r="D187">
         <v>76.481999999999999</v>
@@ -6622,10 +6623,10 @@
         <v>275</v>
       </c>
       <c r="B188" t="s">
+        <v>378</v>
+      </c>
+      <c r="C188" t="s">
         <v>379</v>
-      </c>
-      <c r="C188" t="s">
-        <v>380</v>
       </c>
       <c r="D188">
         <v>73.588999999999999</v>
@@ -6648,10 +6649,10 @@
         <v>729</v>
       </c>
       <c r="B189" t="s">
+        <v>380</v>
+      </c>
+      <c r="C189" t="s">
         <v>381</v>
-      </c>
-      <c r="C189" t="s">
-        <v>382</v>
       </c>
       <c r="D189">
         <v>64.662999999999997</v>
@@ -6674,10 +6675,10 @@
         <v>740</v>
       </c>
       <c r="B190" t="s">
+        <v>382</v>
+      </c>
+      <c r="C190" t="s">
         <v>383</v>
-      </c>
-      <c r="C190" t="s">
-        <v>384</v>
       </c>
       <c r="D190">
         <v>71.358000000000004</v>
@@ -6700,10 +6701,10 @@
         <v>752</v>
       </c>
       <c r="B191" t="s">
+        <v>384</v>
+      </c>
+      <c r="C191" t="s">
         <v>385</v>
-      </c>
-      <c r="C191" t="s">
-        <v>386</v>
       </c>
       <c r="D191">
         <v>82.382000000000005</v>
@@ -6726,10 +6727,10 @@
         <v>756</v>
       </c>
       <c r="B192" t="s">
+        <v>386</v>
+      </c>
+      <c r="C192" t="s">
         <v>387</v>
-      </c>
-      <c r="C192" t="s">
-        <v>388</v>
       </c>
       <c r="D192">
         <v>83.31</v>
@@ -6752,10 +6753,10 @@
         <v>760</v>
       </c>
       <c r="B193" t="s">
+        <v>388</v>
+      </c>
+      <c r="C193" t="s">
         <v>389</v>
-      </c>
-      <c r="C193" t="s">
-        <v>390</v>
       </c>
       <c r="D193">
         <v>70.314999999999998</v>
@@ -6778,10 +6779,10 @@
         <v>158</v>
       </c>
       <c r="B194" t="s">
+        <v>390</v>
+      </c>
+      <c r="C194" t="s">
         <v>391</v>
-      </c>
-      <c r="C194" t="s">
-        <v>392</v>
       </c>
       <c r="D194">
         <v>79.927000000000007</v>
@@ -6804,10 +6805,10 @@
         <v>762</v>
       </c>
       <c r="B195" t="s">
+        <v>392</v>
+      </c>
+      <c r="C195" t="s">
         <v>393</v>
-      </c>
-      <c r="C195" t="s">
-        <v>394</v>
       </c>
       <c r="D195">
         <v>70.397000000000006</v>
@@ -6830,10 +6831,10 @@
         <v>834</v>
       </c>
       <c r="B196" t="s">
+        <v>394</v>
+      </c>
+      <c r="C196" t="s">
         <v>395</v>
-      </c>
-      <c r="C196" t="s">
-        <v>396</v>
       </c>
       <c r="D196">
         <v>63.844000000000001</v>
@@ -6856,10 +6857,10 @@
         <v>764</v>
       </c>
       <c r="B197" t="s">
+        <v>396</v>
+      </c>
+      <c r="C197" t="s">
         <v>397</v>
-      </c>
-      <c r="C197" t="s">
-        <v>398</v>
       </c>
       <c r="D197">
         <v>76.403000000000006</v>
@@ -6882,10 +6883,10 @@
         <v>626</v>
       </c>
       <c r="B198" t="s">
+        <v>398</v>
+      </c>
+      <c r="C198" t="s">
         <v>399</v>
-      </c>
-      <c r="C198" t="s">
-        <v>400</v>
       </c>
       <c r="D198">
         <v>68.734999999999999</v>
@@ -6908,10 +6909,10 @@
         <v>768</v>
       </c>
       <c r="B199" t="s">
+        <v>400</v>
+      </c>
+      <c r="C199" t="s">
         <v>401</v>
-      </c>
-      <c r="C199" t="s">
-        <v>402</v>
       </c>
       <c r="D199">
         <v>60.22</v>
@@ -6934,10 +6935,10 @@
         <v>776</v>
       </c>
       <c r="B200" t="s">
+        <v>402</v>
+      </c>
+      <c r="C200" t="s">
         <v>403</v>
-      </c>
-      <c r="C200" t="s">
-        <v>404</v>
       </c>
       <c r="D200">
         <v>70.606999999999999</v>
@@ -6960,10 +6961,10 @@
         <v>780</v>
       </c>
       <c r="B201" t="s">
+        <v>404</v>
+      </c>
+      <c r="C201" t="s">
         <v>405</v>
-      </c>
-      <c r="C201" t="s">
-        <v>406</v>
       </c>
       <c r="D201">
         <v>73.099999999999994</v>
@@ -6986,10 +6987,10 @@
         <v>788</v>
       </c>
       <c r="B202" t="s">
+        <v>406</v>
+      </c>
+      <c r="C202" t="s">
         <v>407</v>
-      </c>
-      <c r="C202" t="s">
-        <v>408</v>
       </c>
       <c r="D202">
         <v>76.114999999999995</v>
@@ -7012,10 +7013,10 @@
         <v>792</v>
       </c>
       <c r="B203" t="s">
+        <v>408</v>
+      </c>
+      <c r="C203" t="s">
         <v>409</v>
-      </c>
-      <c r="C203" t="s">
-        <v>410</v>
       </c>
       <c r="D203">
         <v>76.86</v>
@@ -7038,10 +7039,10 @@
         <v>795</v>
       </c>
       <c r="B204" t="s">
+        <v>410</v>
+      </c>
+      <c r="C204" t="s">
         <v>411</v>
-      </c>
-      <c r="C204" t="s">
-        <v>412</v>
       </c>
       <c r="D204">
         <v>67.834999999999994</v>
@@ -7064,10 +7065,10 @@
         <v>796</v>
       </c>
       <c r="B205" t="s">
+        <v>412</v>
+      </c>
+      <c r="C205" t="s">
         <v>413</v>
-      </c>
-      <c r="C205" t="s">
-        <v>414</v>
       </c>
       <c r="D205">
         <v>79.731999999999999</v>
@@ -7090,10 +7091,10 @@
         <v>798</v>
       </c>
       <c r="B206" t="s">
+        <v>414</v>
+      </c>
+      <c r="C206" t="s">
         <v>415</v>
-      </c>
-      <c r="C206" t="s">
-        <v>416</v>
       </c>
       <c r="D206">
         <v>66.790999999999997</v>
@@ -7116,10 +7117,10 @@
         <v>800</v>
       </c>
       <c r="B207" t="s">
+        <v>416</v>
+      </c>
+      <c r="C207" t="s">
         <v>417</v>
-      </c>
-      <c r="C207" t="s">
-        <v>418</v>
       </c>
       <c r="D207">
         <v>61.985999999999997</v>
@@ -7142,10 +7143,10 @@
         <v>804</v>
       </c>
       <c r="B208" t="s">
+        <v>418</v>
+      </c>
+      <c r="C208" t="s">
         <v>419</v>
-      </c>
-      <c r="C208" t="s">
-        <v>420</v>
       </c>
       <c r="D208">
         <v>71.710999999999999</v>
@@ -7168,10 +7169,10 @@
         <v>784</v>
       </c>
       <c r="B209" t="s">
+        <v>420</v>
+      </c>
+      <c r="C209" t="s">
         <v>421</v>
-      </c>
-      <c r="C209" t="s">
-        <v>422</v>
       </c>
       <c r="D209">
         <v>77.47</v>
@@ -7194,10 +7195,10 @@
         <v>826</v>
       </c>
       <c r="B210" t="s">
+        <v>422</v>
+      </c>
+      <c r="C210" t="s">
         <v>423</v>
-      </c>
-      <c r="C210" t="s">
-        <v>424</v>
       </c>
       <c r="D210">
         <v>81.111000000000004</v>
@@ -7220,10 +7221,10 @@
         <v>840</v>
       </c>
       <c r="B211" t="s">
+        <v>424</v>
+      </c>
+      <c r="C211" t="s">
         <v>425</v>
-      </c>
-      <c r="C211" t="s">
-        <v>426</v>
       </c>
       <c r="D211">
         <v>78.885000000000005</v>
@@ -7246,10 +7247,10 @@
         <v>858</v>
       </c>
       <c r="B212" t="s">
+        <v>426</v>
+      </c>
+      <c r="C212" t="s">
         <v>427</v>
-      </c>
-      <c r="C212" t="s">
-        <v>428</v>
       </c>
       <c r="D212">
         <v>77.498000000000005</v>
@@ -7272,10 +7273,10 @@
         <v>860</v>
       </c>
       <c r="B213" t="s">
+        <v>428</v>
+      </c>
+      <c r="C213" t="s">
         <v>429</v>
-      </c>
-      <c r="C213" t="s">
-        <v>430</v>
       </c>
       <c r="D213">
         <v>71.171000000000006</v>
@@ -7298,10 +7299,10 @@
         <v>548</v>
       </c>
       <c r="B214" t="s">
+        <v>430</v>
+      </c>
+      <c r="C214" t="s">
         <v>431</v>
-      </c>
-      <c r="C214" t="s">
-        <v>432</v>
       </c>
       <c r="D214">
         <v>70.021000000000001</v>
@@ -7324,10 +7325,10 @@
         <v>862</v>
       </c>
       <c r="B215" t="s">
+        <v>432</v>
+      </c>
+      <c r="C215" t="s">
         <v>433</v>
-      </c>
-      <c r="C215" t="s">
-        <v>434</v>
       </c>
       <c r="D215">
         <v>72.405000000000001</v>
@@ -7350,10 +7351,10 @@
         <v>704</v>
       </c>
       <c r="B216" t="s">
+        <v>434</v>
+      </c>
+      <c r="C216" t="s">
         <v>435</v>
-      </c>
-      <c r="C216" t="s">
-        <v>436</v>
       </c>
       <c r="D216">
         <v>75.171999999999997</v>
@@ -7376,10 +7377,10 @@
         <v>876</v>
       </c>
       <c r="B217" t="s">
+        <v>436</v>
+      </c>
+      <c r="C217" t="s">
         <v>437</v>
-      </c>
-      <c r="C217" t="s">
-        <v>438</v>
       </c>
       <c r="D217">
         <v>79.453999999999994</v>
@@ -7402,10 +7403,10 @@
         <v>732</v>
       </c>
       <c r="B218" t="s">
+        <v>438</v>
+      </c>
+      <c r="C218" t="s">
         <v>439</v>
-      </c>
-      <c r="C218" t="s">
-        <v>440</v>
       </c>
       <c r="D218">
         <v>69.495999999999995</v>
@@ -7428,10 +7429,10 @@
         <v>887</v>
       </c>
       <c r="B219" t="s">
+        <v>440</v>
+      </c>
+      <c r="C219" t="s">
         <v>441</v>
-      </c>
-      <c r="C219" t="s">
-        <v>442</v>
       </c>
       <c r="D219">
         <v>66.087000000000003</v>
@@ -7454,10 +7455,10 @@
         <v>894</v>
       </c>
       <c r="B220" t="s">
+        <v>442</v>
+      </c>
+      <c r="C220" t="s">
         <v>443</v>
-      </c>
-      <c r="C220" t="s">
-        <v>444</v>
       </c>
       <c r="D220">
         <v>62.463999999999999</v>
@@ -7480,10 +7481,10 @@
         <v>716</v>
       </c>
       <c r="B221" t="s">
+        <v>444</v>
+      </c>
+      <c r="C221" t="s">
         <v>445</v>
-      </c>
-      <c r="C221" t="s">
-        <v>446</v>
       </c>
       <c r="D221">
         <v>60.293999999999997</v>
